--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcanete/Desktop/GA-SEI/artzy/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063C0A6-D9E9-B247-95DF-3401222BACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43AA06-5F10-B540-91B9-8C8E09EED935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48960" yWindow="3680" windowWidth="33560" windowHeight="16640" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
+    <workbookView xWindow="48960" yWindow="3680" windowWidth="26720" windowHeight="16640" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>actions/requests</t>
   </si>
@@ -331,13 +331,55 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Web design</t>
+  </si>
+  <si>
+    <t>Add css styling</t>
+  </si>
+  <si>
+    <t>Register page css</t>
+  </si>
+  <si>
+    <t>login page css</t>
+  </si>
+  <si>
+    <t>logout feature css</t>
+  </si>
+  <si>
+    <t>profile page css</t>
+  </si>
+  <si>
+    <t>show page css</t>
+  </si>
+  <si>
+    <t>home page css</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +402,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -557,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -593,19 +648,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1428,175 +1491,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85EC1A-2CB7-FD42-8EF3-6C7493CCABF4}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="23" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>4.2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>4.3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>4.5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>4.7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
         <v>4.8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>5</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>5.2</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="30" t="s">
         <v>94</v>
       </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>6</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcanete/Desktop/GA-SEI/artzy/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43AA06-5F10-B540-91B9-8C8E09EED935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFC0A0-6C26-7B48-8CE5-EDEB539851A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48960" yWindow="3680" windowWidth="26720" windowHeight="16640" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
+    <workbookView xWindow="58860" yWindow="3940" windowWidth="22920" windowHeight="14900" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks" sheetId="4" r:id="rId1"/>
+    <sheet name="task checklist" sheetId="4" r:id="rId1"/>
     <sheet name="web files" sheetId="3" r:id="rId2"/>
     <sheet name="routes" sheetId="1" r:id="rId3"/>
     <sheet name="ERD" sheetId="2" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>actions/requests</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>6.1.6</t>
+  </si>
+  <si>
+    <t>about page</t>
   </si>
 </sst>
 </file>
@@ -627,6 +630,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,27 +672,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1491,257 +1494,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85EC1A-2CB7-FD42-8EF3-6C7493CCABF4}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="17">
         <v>4.2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>4.3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>6</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>4.3</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="29" t="s">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>4.7</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>4.8</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>5</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>6</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>6.1</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="C26" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C27" s="18" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1857,10 +1891,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2200,14 +2234,14 @@
   <sheetData>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="27"/>
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -2275,10 +2309,10 @@
     </row>
     <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="s">

--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcanete/Desktop/GA-SEI/artzy/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFC0A0-6C26-7B48-8CE5-EDEB539851A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2B372-0E15-E94F-8F34-D7B6D120DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58860" yWindow="3940" windowWidth="22920" windowHeight="14900" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
+    <workbookView xWindow="43040" yWindow="7300" windowWidth="22920" windowHeight="14900" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
   </bookViews>
   <sheets>
     <sheet name="task checklist" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>actions/requests</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>about page</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>add feature to hide edit/remove art if art doesn’t belong to the user logged in</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -671,6 +677,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1494,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85EC1A-2CB7-FD42-8EF3-6C7493CCABF4}">
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="1" sqref="C27 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1721,7 @@
       <c r="A21" s="17">
         <v>6.1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="18"/>
@@ -1751,8 +1766,8 @@
       <c r="B25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>97</v>
+      <c r="C25" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1762,8 +1777,8 @@
       <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>97</v>
+      <c r="C26" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1773,8 +1788,18 @@
       <c r="B27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>97</v>
+      <c r="C27" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B31" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/planning/planning.xlsx
+++ b/planning/planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcanete/Desktop/GA-SEI/artzy/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2B372-0E15-E94F-8F34-D7B6D120DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2205D04-6B21-DA42-9FE6-A1FA3B2B7B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43040" yWindow="7300" windowWidth="22920" windowHeight="14900" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{8869013C-6BD3-9241-A9E3-4A965B6B46B8}"/>
   </bookViews>
   <sheets>
     <sheet name="task checklist" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
   <si>
     <t>actions/requests</t>
   </si>
@@ -225,9 +225,6 @@
     <t>varchar(255)</t>
   </si>
   <si>
-    <t>int FK</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -382,6 +379,12 @@
   </si>
   <si>
     <t>add feature to hide edit/remove art if art doesn’t belong to the user logged in</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>comments css</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -652,11 +655,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,15 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,23 +1513,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85EC1A-2CB7-FD42-8EF3-6C7493CCABF4}">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="1" sqref="C27 E27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1535,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1549,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1560,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1571,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="18"/>
     </row>
@@ -1580,10 +1582,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1591,10 +1593,10 @@
         <v>4.2</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1602,10 +1604,10 @@
         <v>4.3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1613,10 +1615,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1624,10 +1626,10 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1635,10 +1637,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1646,10 +1648,10 @@
         <v>4.7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1657,10 +1659,10 @@
         <v>4.8</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1668,25 +1670,27 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -1694,17 +1698,19 @@
       <c r="A18" s="17">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="18"/>
+      <c r="B18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>5.2</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>94</v>
+      <c r="B19" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -1712,8 +1718,8 @@
       <c r="A20" s="17">
         <v>6</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>98</v>
+      <c r="B20" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -1721,85 +1727,96 @@
       <c r="A21" s="17">
         <v>6.1</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>99</v>
+      <c r="B21" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="52" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B31" s="33" t="s">
-        <v>114</v>
+      <c r="C31" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1842,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1835,7 +1852,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1865,32 +1882,32 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1920,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,10 +1933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2117,7 +2134,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2244,7 +2261,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2259,14 +2276,14 @@
   <sheetData>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="C4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -2287,7 +2304,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>51</v>
@@ -2301,7 +2318,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>60</v>
@@ -2321,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2329,15 +2346,15 @@
         <v>59</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="31"/>
+      <c r="D15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="s">
@@ -2349,7 +2366,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>55</v>
@@ -2360,15 +2377,15 @@
         <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
